--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>1.237345863603667</v>
+        <v>2.263494257370667</v>
       </c>
       <c r="R2">
-        <v>11.136112772433</v>
+        <v>20.371448316336</v>
       </c>
       <c r="S2">
-        <v>0.01905002723008594</v>
+        <v>0.01583991646765289</v>
       </c>
       <c r="T2">
-        <v>0.01905002723008594</v>
+        <v>0.01583991646765289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
-        <v>0.4220305884026667</v>
+        <v>0.2578122744426667</v>
       </c>
       <c r="R3">
-        <v>3.798275295623999</v>
+        <v>2.320310469984</v>
       </c>
       <c r="S3">
-        <v>0.006497531884565446</v>
+        <v>0.001804168434803631</v>
       </c>
       <c r="T3">
-        <v>0.006497531884565444</v>
+        <v>0.001804168434803631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
-        <v>0.3521714753473333</v>
+        <v>0.2151363705573333</v>
       </c>
       <c r="R4">
-        <v>3.169543278126</v>
+        <v>1.936227335016</v>
       </c>
       <c r="S4">
-        <v>0.005421989431061091</v>
+        <v>0.001505522767590628</v>
       </c>
       <c r="T4">
-        <v>0.005421989431061091</v>
+        <v>0.001505522767590628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N5">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O5">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P5">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q5">
-        <v>32.70278149206812</v>
+        <v>97.92945055572847</v>
       </c>
       <c r="R5">
-        <v>294.3250334286131</v>
+        <v>881.3650550015561</v>
       </c>
       <c r="S5">
-        <v>0.5034880676846852</v>
+        <v>0.6853095878086257</v>
       </c>
       <c r="T5">
-        <v>0.5034880676846851</v>
+        <v>0.6853095878086258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q6">
         <v>11.15417646874045</v>
@@ -818,10 +818,10 @@
         <v>100.387588218664</v>
       </c>
       <c r="S6">
-        <v>0.1717283515538958</v>
+        <v>0.07805684638031539</v>
       </c>
       <c r="T6">
-        <v>0.1717283515538958</v>
+        <v>0.07805684638031539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q7">
         <v>9.307815336676224</v>
@@ -880,10 +880,10 @@
         <v>83.77033803008601</v>
       </c>
       <c r="S7">
-        <v>0.1433019989252487</v>
+        <v>0.06513602451130324</v>
       </c>
       <c r="T7">
-        <v>0.1433019989252487</v>
+        <v>0.06513602451130325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N8">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O8">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P8">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q8">
-        <v>6.013501990177001</v>
+        <v>18.007610329924</v>
       </c>
       <c r="R8">
-        <v>54.12151791159301</v>
+        <v>162.068492969316</v>
       </c>
       <c r="S8">
-        <v>0.09258314916688619</v>
+        <v>0.1260171270500066</v>
       </c>
       <c r="T8">
-        <v>0.09258314916688618</v>
+        <v>0.1260171270500066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.694632</v>
       </c>
       <c r="O9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q9">
         <v>2.051069032456</v>
@@ -1004,10 +1004,10 @@
         <v>18.459621292104</v>
       </c>
       <c r="S9">
-        <v>0.03157801069886491</v>
+        <v>0.01435336627769158</v>
       </c>
       <c r="T9">
-        <v>0.03157801069886491</v>
+        <v>0.01435336627769158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.414118</v>
       </c>
       <c r="O10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q10">
         <v>1.711553681294</v>
@@ -1066,10 +1066,10 @@
         <v>15.403983131646</v>
       </c>
       <c r="S10">
-        <v>0.02635087342470663</v>
+        <v>0.01197744030201051</v>
       </c>
       <c r="T10">
-        <v>0.02635087342470663</v>
+        <v>0.01197744030201051</v>
       </c>
     </row>
   </sheetData>
